--- a/data/ACCOUNT TRACKER  - Raulene.xlsx
+++ b/data/ACCOUNT TRACKER  - Raulene.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dixit\PycharmProjects\Fiverr_Goyoyo_LinkedIn\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1575D76F-5E8E-4792-BC8D-4E5A27733C9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1329C0-B831-4953-93A8-2018D48A04B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
   <si>
     <r>
       <rPr>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>Serial number</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Manager</t>
   </si>
 </sst>
 </file>
@@ -483,9 +489,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -551,6 +554,18 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -575,14 +590,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -603,9 +612,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1257,7 +1263,7 @@
   <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1279,1066 +1285,1062 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="9" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
     </row>
     <row r="2" spans="1:14" ht="9" customHeight="1">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
     </row>
     <row r="3" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="8.4499999999999993" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="L6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="M6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="1"/>
+      <c r="N6" s="16" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:14" ht="8.25" customHeight="1">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>44636</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="11">
         <v>644658952</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <v>32876</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="17">
         <v>1</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="K7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="L7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="20">
+      <c r="M7" s="19">
         <v>1</v>
       </c>
-      <c r="N7" s="2"/>
+      <c r="N7" s="19" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:14" ht="8.25" customHeight="1">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>44636</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="11">
         <v>644658952</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>32876</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="17">
         <v>2</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="L8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="20">
+      <c r="M8" s="19">
         <v>2</v>
       </c>
-      <c r="N8" s="2"/>
+      <c r="N8" s="19" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" spans="1:14" ht="8.25" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="2"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="8.25" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="2"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="8.25" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="8.25" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="8.25" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="8.25" customHeight="1">
-      <c r="J14" s="18"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="8.25" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
     </row>
     <row r="21" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
     </row>
     <row r="22" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
     </row>
     <row r="23" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
     </row>
     <row r="24" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
     </row>
     <row r="25" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
     </row>
     <row r="26" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
     </row>
     <row r="27" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
     </row>
     <row r="28" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
     </row>
     <row r="29" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
     </row>
     <row r="30" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
     </row>
     <row r="31" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
     </row>
     <row r="32" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="33"/>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
     </row>
     <row r="33" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
     </row>
     <row r="34" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
     </row>
     <row r="35" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
     </row>
     <row r="36" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33"/>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
     </row>
     <row r="37" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="33"/>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
     </row>
     <row r="38" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="33"/>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
     </row>
     <row r="39" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="33"/>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
     </row>
     <row r="40" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="34"/>
-      <c r="M40" s="34"/>
-      <c r="N40" s="34"/>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
     </row>
     <row r="41" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
     </row>
     <row r="42" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
     </row>
     <row r="43" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
     </row>
     <row r="44" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
     </row>
     <row r="45" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
     </row>
     <row r="46" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
     </row>
     <row r="47" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
     </row>
     <row r="48" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
     </row>
     <row r="49" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
     </row>
     <row r="50" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
     </row>
     <row r="51" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
     </row>
     <row r="52" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
     </row>
     <row r="53" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="32"/>
-      <c r="M53" s="32"/>
-      <c r="N53" s="32"/>
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="24"/>
     </row>
     <row r="54" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="33"/>
-      <c r="M54" s="33"/>
-      <c r="N54" s="33"/>
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="25"/>
     </row>
     <row r="55" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="33"/>
-      <c r="M55" s="33"/>
-      <c r="N55" s="33"/>
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="25"/>
     </row>
     <row r="56" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="33"/>
-      <c r="L56" s="33"/>
-      <c r="M56" s="33"/>
-      <c r="N56" s="33"/>
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="25"/>
     </row>
     <row r="57" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="33"/>
-      <c r="M57" s="33"/>
-      <c r="N57" s="33"/>
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="25"/>
+      <c r="N57" s="25"/>
     </row>
     <row r="58" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="33"/>
-      <c r="M58" s="33"/>
-      <c r="N58" s="33"/>
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="25"/>
+      <c r="N58" s="25"/>
     </row>
     <row r="59" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="33"/>
-      <c r="K59" s="33"/>
-      <c r="L59" s="33"/>
-      <c r="M59" s="33"/>
-      <c r="N59" s="33"/>
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="25"/>
     </row>
     <row r="60" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="33"/>
-      <c r="K60" s="33"/>
-      <c r="L60" s="33"/>
-      <c r="M60" s="33"/>
-      <c r="N60" s="33"/>
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="25"/>
+      <c r="N60" s="25"/>
     </row>
     <row r="61" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="33"/>
-      <c r="K61" s="33"/>
-      <c r="L61" s="33"/>
-      <c r="M61" s="33"/>
-      <c r="N61" s="33"/>
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="25"/>
+      <c r="N61" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="J53:J61"/>
-    <mergeCell ref="K53:K61"/>
-    <mergeCell ref="L53:L61"/>
-    <mergeCell ref="M53:M61"/>
-    <mergeCell ref="N53:N61"/>
-    <mergeCell ref="J19:J40"/>
-    <mergeCell ref="K19:K40"/>
-    <mergeCell ref="L19:L40"/>
-    <mergeCell ref="M19:M40"/>
-    <mergeCell ref="N19:N40"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
@@ -2349,6 +2351,16 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
+    <mergeCell ref="J19:J40"/>
+    <mergeCell ref="K19:K40"/>
+    <mergeCell ref="L19:L40"/>
+    <mergeCell ref="M19:M40"/>
+    <mergeCell ref="N19:N40"/>
+    <mergeCell ref="J53:J61"/>
+    <mergeCell ref="K53:K61"/>
+    <mergeCell ref="L53:L61"/>
+    <mergeCell ref="M53:M61"/>
+    <mergeCell ref="N53:N61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2360,7 +2372,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2382,536 +2394,543 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="9.9499999999999993" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="9.6" customHeight="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="24" t="s">
+      <c r="K6" s="27" t="s">
         <v>13</v>
       </c>
       <c r="L6" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="24" t="s">
+      <c r="M6" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="24"/>
+      <c r="N6" s="27" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>644658952</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="25"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="28"/>
     </row>
     <row r="8" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>644658952</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="22">
+      <c r="I8" s="1"/>
+      <c r="J8" s="21">
         <v>2</v>
       </c>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="21">
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="20">
         <v>2</v>
       </c>
-      <c r="N8" s="2"/>
+      <c r="N8" s="23"/>
     </row>
     <row r="9" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="2"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="2"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="8.1" customHeight="1">
-      <c r="J14" s="19"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
     </row>
     <row r="22" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
     </row>
     <row r="23" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
     </row>
     <row r="24" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
     </row>
     <row r="25" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
     </row>
     <row r="26" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
     </row>
     <row r="27" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
     </row>
     <row r="28" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
     </row>
     <row r="29" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
     </row>
     <row r="30" spans="1:14" ht="8.1" customHeight="1">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="J20:J30"/>
@@ -2919,11 +2938,6 @@
     <mergeCell ref="L20:L30"/>
     <mergeCell ref="M20:M30"/>
     <mergeCell ref="N20:N30"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
